--- a/codes.xlsx
+++ b/codes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\protondecay314\Desktop\school\college\year-1-sem-1\sc1005\computer-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96221E0A-E94D-42D3-AA81-A32A6DA7665F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790868E8-B3F6-4ED3-8428-83CF6295FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU opcodes" sheetId="1" r:id="rId1"/>
-    <sheet name="CPU opcodes" sheetId="2" r:id="rId2"/>
+    <sheet name="CPU opcodes v2" sheetId="3" r:id="rId2"/>
+    <sheet name="CPU opcodes v1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,6 +27,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CFA98D8C-521E-424D-AA6B-547BA77D418A}</author>
+    <author>tc={0BE7D026-F924-4B9F-A601-75E972EA86CF}</author>
+  </authors>
+  <commentList>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{CFA98D8C-521E-424D-AA6B-547BA77D418A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Note: less efficient but easier to implement in verilog.</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{0BE7D026-F924-4B9F-A601-75E972EA86CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    00 - not zero, 01 - zero, 10 - not carry, 11 - carry</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F9D9F88B-90F0-45DB-B654-6AE4DE9BACCC}</author>
@@ -53,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="100">
   <si>
     <t>Code</t>
   </si>
@@ -350,6 +378,9 @@
   </si>
   <si>
     <t>write_addr</t>
+  </si>
+  <si>
+    <t>Pseudo-instructions</t>
   </si>
 </sst>
 </file>
@@ -365,18 +396,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,13 +442,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,6 +735,17 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P12" dT="2025-10-30T17:22:39.37" personId="{F132F456-7ED5-4F09-B863-904CB84451E5}" id="{CFA98D8C-521E-424D-AA6B-547BA77D418A}">
+    <text>Note: less efficient but easier to implement in verilog.</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2025-10-30T17:15:03.45" personId="{F132F456-7ED5-4F09-B863-904CB84451E5}" id="{0BE7D026-F924-4B9F-A601-75E972EA86CF}">
+    <text>00 - not zero, 01 - zero, 10 - not carry, 11 - carry</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="P12" dT="2025-10-30T17:22:39.37" personId="{F132F456-7ED5-4F09-B863-904CB84451E5}" id="{F9D9F88B-90F0-45DB-B654-6AE4DE9BACCC}">
     <text>Note: less efficient but easier to implement in verilog.</text>
   </threadedComment>
@@ -718,7 +760,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,18 +871,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA2C593-8D65-470C-B475-F66A7F459E70}">
-  <dimension ref="A1:U18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9633CB-4450-43DF-8086-9F7B6C5F6101}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
     <col min="2" max="13" width="4.21875" style="2" customWidth="1"/>
-    <col min="14" max="21" width="12.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="12.88671875" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -886,20 +932,20 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="1" t="s">
         <v>98</v>
       </c>
@@ -987,24 +1033,24 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="1" t="s">
         <v>93</v>
       </c>
@@ -1034,24 +1080,24 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="1" t="s">
         <v>93</v>
       </c>
@@ -1081,24 +1127,24 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="1" t="s">
         <v>93</v>
       </c>
@@ -1128,24 +1174,24 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="1" t="s">
         <v>93</v>
       </c>
@@ -1175,24 +1221,24 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1" t="s">
         <v>93</v>
       </c>
@@ -1222,24 +1268,24 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="1" t="s">
         <v>93</v>
       </c>
@@ -1253,7 +1299,7 @@
         <v>1010</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>29</v>
@@ -1269,24 +1315,24 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>69</v>
@@ -1308,39 +1354,41 @@
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="1" t="s">
         <v>93</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>12</v>
+      <c r="Q12" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>54</v>
@@ -1355,18 +1403,18 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="O13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1387,22 +1435,22 @@
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="O14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1425,18 +1473,18 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="O15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1489,34 +1537,34 @@
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -1536,31 +1584,31 @@
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="O18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -1576,36 +1624,813 @@
         <v>67</v>
       </c>
     </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
+  <mergeCells count="39">
+    <mergeCell ref="B16:M16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA2C593-8D65-470C-B475-F66A7F459E70}">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="4.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="12.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1010</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="O13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="O16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
@@ -1615,7 +2440,35 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
